--- a/docs/tables/MlSecOps_Process_Framework.xlsx
+++ b/docs/tables/MlSecOps_Process_Framework.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsemenov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsemenov\cyberorda.github.io\docs\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F090AAAB-97B1-4955-A775-0E92478BEE52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879C011F-6039-47BA-A605-A0FAA7405723}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="6330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Фреймворк" sheetId="2" r:id="rId1"/>
-    <sheet name="4 домен" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="203">
   <si>
     <t>Шифрование данных при хранении и передаче</t>
   </si>
@@ -532,10 +531,6 @@
     <t>Тестирование на проникновение - имитирует атаки злоумышленника, позволяя оценить защищённость приложения методом поиска и экспулатации уязвимостей. Цель такого тестирования - обнаружить недостатки и слабые места в системе, которые могут привести к недопустимым событиям. Пентесты можно проводить внутренними силами или подрядчиками. Следует определить периодичность пентестами и сделать их обязательными для всех приложений .</t>
   </si>
   <si>
-    <t xml:space="preserve"> Это должно включать сканирование операционной системы, библиотек и платформ, используемых во время разработки.
-Внедрение автоматизированных инструментальных проверок безопасности в MLOPS конвейер - не то же самое?</t>
-  </si>
-  <si>
     <t>Внедрение периодического сканирования платформы для выявления потенциальных уязвимостей.</t>
   </si>
   <si>
@@ -555,10 +550,6 @@
   </si>
   <si>
     <t>Для оценки процессов реагирования на инциденты рекомендуется проводить киберучения, симулирующие настоящие атаки и недопустимые события. Для составления плана такого вида обучения можно руководствоваться уже совершёнными инцидентами и путями эксплойта. По результатам такого мероприятия можно оценивать эффективность принятых мер, работы сотрудников и корректировать политику реагирования.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уже было много написано в пред.домене. Как вариант, заменить на СОК:
-Security operations center - центр постоянного мониторинга приложений.Это группа сотрудников, которые занимаются круглосуточным контролем за приложением, технической поддержкой, предотвращением инцидентов и реагированием на них. В арсенале имееются инструменты мониторинга сетевой безопасности, антивирусное ПО, журналы событий и данные о приложении. Чтобы упорядочить всю эту информацию, как правило, используется SIEM - система управления информацией и событиями безопасности. </t>
   </si>
   <si>
     <t>Формирование группы экстренного реагирования на инциденты, пути эскалации, основные принципы реагирования и т.д. Кроме того, стоит измерять все инциденты метриками и вести учёт всех удачных и неудачных атак.</t>
@@ -632,6 +623,30 @@
   </si>
   <si>
     <t>Внедрение системы непрерывного мониторинга всех этапов разработки модели машинного обучения, начиная от сбора данных и заканчивая развертыванием и эксплуатацией. Это позволит выявлять аномалии и подозрительную активность, которая может свидетельствовать о долгосрочных атаках, направленных на манипуляцию моделью или хищение данных.</t>
+  </si>
+  <si>
+    <t>Практика ориентированная на контроль результатов модели.</t>
+  </si>
+  <si>
+    <t>Реализация процесса развёртывания модели с использованием CI/CD для непрерывной работы.</t>
+  </si>
+  <si>
+    <t>Практика целью которой является защита модели машинного обучения при развёртывании на конечной точке от различных атак, которые приводят к краже или потере доступности к модели.</t>
+  </si>
+  <si>
+    <t>Практика для реализации контроля вводимых данных, которые могут привести к возникновению рисков.</t>
+  </si>
+  <si>
+    <t>Практика связанная с оценкой уязвимостей и реагирования на них в контексте работы ML-OPS пайплайна.</t>
+  </si>
+  <si>
+    <t>Практика целью которой является: идентифицировать, устранить и минимизировать воздействие угроз на системы машинного обучения, а также предотвратить их повторение в будущем.</t>
+  </si>
+  <si>
+    <t>Практика, целью которой является выявление рисков и уязвимостей, когда модель машинного обучения уже работает в production.</t>
+  </si>
+  <si>
+    <t>Целью данной практики является построение конвеера для автоматизации процессов разработки и обучения модели.</t>
   </si>
   <si>
     <r>
@@ -641,10 +656,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1.Обеспечение контроля доступа к данным;
 2.Обеспечение безопасности при  для хранении данных (Databases, Data Lake);
@@ -659,45 +673,20 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 Такой артефакт необходимо сделать обязательным к исполнению и осуществлять контроль за выполнением всех изложенных в нём требований.</t>
     </r>
-  </si>
-  <si>
-    <t>Практика ориентированная на контроль результатов модели.</t>
-  </si>
-  <si>
-    <t>Реализация процесса развёртывания модели с использованием CI/CD для непрерывной работы.</t>
-  </si>
-  <si>
-    <t>Практика целью которой является защита модели машинного обучения при развёртывании на конечной точке от различных атак, которые приводят к краже или потере доступности к модели.</t>
-  </si>
-  <si>
-    <t>Практика для реализации контроля вводимых данных, которые могут привести к возникновению рисков.</t>
-  </si>
-  <si>
-    <t>Практика связанная с оценкой уязвимостей и реагирования на них в контексте работы ML-OPS пайплайна.</t>
-  </si>
-  <si>
-    <t>Практика целью которой является: идентифицировать, устранить и минимизировать воздействие угроз на системы машинного обучения, а также предотвратить их повторение в будущем.</t>
-  </si>
-  <si>
-    <t>Практика, целью которой является выявление рисков и уязвимостей, когда модель машинного обучения уже работает в production.</t>
-  </si>
-  <si>
-    <t>Целью данной практики является построение конвеера для автоматизации процессов разработки и обучения модели.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,8 +696,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF1B3139"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -716,13 +706,64 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1B3139"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,12 +778,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -796,19 +843,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -828,128 +862,116 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,2987 +1256,2986 @@
   <dimension ref="A1:F318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="G29" sqref="G22:G29"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="A1:F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="38.81640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="41.54296875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="37.453125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="64.453125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="33.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.81640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="45.36328125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="42.54296875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="69.54296875" style="9" customWidth="1"/>
     <col min="7" max="7" width="33.08984375" customWidth="1"/>
     <col min="12" max="12" width="56.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="367" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="29" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="218.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="31"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="173" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="23" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="1" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="1" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="209.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="37" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="115" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="38" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="115" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="23" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="229" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="1" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="115" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="1" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="192" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+    <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="120.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="31"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="39" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="24" t="s">
+    <row r="17" spans="1:6" ht="84" x14ac:dyDescent="0.35">
+      <c r="A17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="1" t="s">
+    <row r="18" spans="1:6" ht="70" x14ac:dyDescent="0.35">
+      <c r="A18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="191" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="1" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="1" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="36" t="s">
-        <v>196</v>
+      <c r="F20" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="1" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="1" t="s">
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="185.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="11" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="1" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="1" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="11" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="30" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="1" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="1" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="1" t="s">
+    <row r="29" spans="1:6" ht="84" x14ac:dyDescent="0.35">
+      <c r="A29" s="28"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="30" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="1" t="s">
+    <row r="31" spans="1:6" ht="70" x14ac:dyDescent="0.35">
+      <c r="A31" s="28"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="162.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="18"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="1" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A33" s="18"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="1" t="s">
+    <row r="33" spans="1:6" ht="56" x14ac:dyDescent="0.35">
+      <c r="A33" s="28"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A34" s="18"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="1" t="s">
+    <row r="34" spans="1:6" ht="56" x14ac:dyDescent="0.35">
+      <c r="A34" s="28"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="17" t="s">
+    <row r="35" spans="1:6" ht="42" x14ac:dyDescent="0.35">
+      <c r="A35" s="28"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="56" x14ac:dyDescent="0.35">
+      <c r="A36" s="28"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="112" x14ac:dyDescent="0.35">
+      <c r="A37" s="28"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="112" x14ac:dyDescent="0.35">
+      <c r="A38" s="28"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="28"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="112" x14ac:dyDescent="0.35">
+      <c r="A40" s="28"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="70" x14ac:dyDescent="0.35">
+      <c r="A41" s="28"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="112" x14ac:dyDescent="0.35">
+      <c r="A42" s="28"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="84" x14ac:dyDescent="0.35">
+      <c r="A43" s="28"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="138.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="28"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.35">
+      <c r="A45" s="28"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="70" x14ac:dyDescent="0.35">
+      <c r="A46" s="28"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="84" x14ac:dyDescent="0.35">
+      <c r="A47" s="28"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="84" x14ac:dyDescent="0.35">
+      <c r="A48" s="28"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="70" x14ac:dyDescent="0.35">
+      <c r="A49" s="28"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="112" x14ac:dyDescent="0.35">
+      <c r="A50" s="28"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="70" x14ac:dyDescent="0.35">
+      <c r="A51" s="28"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="140" x14ac:dyDescent="0.35">
+      <c r="A52" s="28"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+      <c r="A53" s="28"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="140" x14ac:dyDescent="0.35">
+      <c r="A54" s="28"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="42" x14ac:dyDescent="0.35">
+      <c r="A55" s="28"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="70" x14ac:dyDescent="0.35">
+      <c r="A56" s="28"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+      <c r="A57" s="28"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+      <c r="A58" s="28"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A43" s="18"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="138.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="18"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="18"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="27" t="s">
+      <c r="E58" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="70" x14ac:dyDescent="0.35">
+      <c r="A59" s="28"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+      <c r="A60" s="28"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="70" x14ac:dyDescent="0.35">
+      <c r="A61" s="28"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+      <c r="A62" s="33"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="56" x14ac:dyDescent="0.35">
+      <c r="A63" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A46" s="18"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A47" s="18"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="36" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="18"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="26" t="s">
+      <c r="E63" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+      <c r="A64" s="28"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="56" x14ac:dyDescent="0.35">
+      <c r="A65" s="28"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="84" x14ac:dyDescent="0.35">
+      <c r="A66" s="28"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="18"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" s="36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F51" s="36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A54" s="18"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F54" s="36" t="s">
+      <c r="E66" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="18"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="18"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="18"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F57" s="36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="18"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="26" t="s">
+    <row r="67" spans="1:6" ht="56" x14ac:dyDescent="0.35">
+      <c r="A67" s="28"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="70" x14ac:dyDescent="0.35">
+      <c r="A68" s="28"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+      <c r="A69" s="28"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+      <c r="A70" s="28"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+      <c r="A71" s="28"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" s="36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="18"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F59" s="36" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A60" s="18"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F60" s="36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F61" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="19"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F62" s="36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A63" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="26" t="s">
+      <c r="E71" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="112" x14ac:dyDescent="0.35">
+      <c r="A72" s="28"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+      <c r="A73" s="28"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="126" x14ac:dyDescent="0.35">
+      <c r="A74" s="28"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="154" x14ac:dyDescent="0.35">
+      <c r="A75" s="28"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="84" x14ac:dyDescent="0.35">
+      <c r="A76" s="28"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="140" x14ac:dyDescent="0.35">
+      <c r="A77" s="28"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E77" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F63" s="36" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F64" s="36" t="s">
+    </row>
+    <row r="78" spans="1:6" ht="154" x14ac:dyDescent="0.35">
+      <c r="A78" s="28"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F65" s="36" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="36" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F67" s="36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F68" s="36" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="36" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F71" s="36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="36" t="s">
+    <row r="79" spans="1:6" ht="98" x14ac:dyDescent="0.35">
+      <c r="A79" s="33"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="11" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F73" s="36" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F74" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F75" s="36" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F77" s="36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="36" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80"/>
       <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="8"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81"/>
       <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="8"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82"/>
       <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="8"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83"/>
       <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="8"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84"/>
       <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="8"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85"/>
       <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="8"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86"/>
       <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="8"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87"/>
       <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="8"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88"/>
       <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="8"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89"/>
       <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="8"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90"/>
       <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="8"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91"/>
       <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="8"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92"/>
       <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="8"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93"/>
       <c r="B93"/>
-      <c r="C93"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="8"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94"/>
       <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="8"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95"/>
       <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="8"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96"/>
       <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="8"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97"/>
       <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="8"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98"/>
       <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98"/>
-      <c r="F98"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="8"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99"/>
       <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99"/>
-      <c r="F99"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="8"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100"/>
       <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100"/>
-      <c r="F100"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="8"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101"/>
       <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="8"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102"/>
       <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="8"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103"/>
       <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="8"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104"/>
       <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="8"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105"/>
       <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="8"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106"/>
       <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="8"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107"/>
       <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="8"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108"/>
       <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="8"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109"/>
       <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="8"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110"/>
       <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="8"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111"/>
       <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="8"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112"/>
       <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="8"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113"/>
       <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="8"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114"/>
       <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="8"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115"/>
       <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="8"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116"/>
       <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="8"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117"/>
       <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="8"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118"/>
       <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="8"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119"/>
       <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="8"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120"/>
       <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="8"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121"/>
       <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="8"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122"/>
       <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="8"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123"/>
       <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="8"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124"/>
       <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="8"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125"/>
       <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126"/>
       <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="8"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127"/>
       <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="8"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128"/>
       <c r="B128"/>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="8"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129"/>
       <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="8"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130"/>
       <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="8"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131"/>
       <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131"/>
-      <c r="F131"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="8"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132"/>
       <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="F132"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="8"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133"/>
       <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="8"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134"/>
       <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="8"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135"/>
       <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="8"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136"/>
       <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="8"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137"/>
       <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="8"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138"/>
       <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="8"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139"/>
       <c r="B139"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="8"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140"/>
       <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140"/>
-      <c r="E140"/>
-      <c r="F140"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="8"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141"/>
       <c r="B141"/>
-      <c r="C141"/>
-      <c r="D141"/>
-      <c r="E141"/>
-      <c r="F141"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="8"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142"/>
       <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="8"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143"/>
       <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="8"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144"/>
       <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="8"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145"/>
       <c r="B145"/>
-      <c r="C145"/>
-      <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="8"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146"/>
       <c r="B146"/>
-      <c r="C146"/>
-      <c r="D146"/>
-      <c r="E146"/>
-      <c r="F146"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="8"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147"/>
       <c r="B147"/>
-      <c r="C147"/>
-      <c r="D147"/>
-      <c r="E147"/>
-      <c r="F147"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="8"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148"/>
       <c r="B148"/>
-      <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="8"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149"/>
       <c r="B149"/>
-      <c r="C149"/>
-      <c r="D149"/>
-      <c r="E149"/>
-      <c r="F149"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="8"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150"/>
       <c r="B150"/>
-      <c r="C150"/>
-      <c r="D150"/>
-      <c r="E150"/>
-      <c r="F150"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="8"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151"/>
       <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="8"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152"/>
       <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="8"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153"/>
       <c r="B153"/>
-      <c r="C153"/>
-      <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="8"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154"/>
       <c r="B154"/>
-      <c r="C154"/>
-      <c r="D154"/>
-      <c r="E154"/>
-      <c r="F154"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="8"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155"/>
       <c r="B155"/>
-      <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="8"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156"/>
       <c r="B156"/>
-      <c r="C156"/>
-      <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="8"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157"/>
       <c r="B157"/>
-      <c r="C157"/>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="8"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158"/>
       <c r="B158"/>
-      <c r="C158"/>
-      <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="8"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159"/>
       <c r="B159"/>
-      <c r="C159"/>
-      <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="8"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160"/>
       <c r="B160"/>
-      <c r="C160"/>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="8"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161"/>
       <c r="B161"/>
-      <c r="C161"/>
-      <c r="D161"/>
-      <c r="E161"/>
-      <c r="F161"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="8"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162"/>
       <c r="B162"/>
-      <c r="C162"/>
-      <c r="D162"/>
-      <c r="E162"/>
-      <c r="F162"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="8"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163"/>
       <c r="B163"/>
-      <c r="C163"/>
-      <c r="D163"/>
-      <c r="E163"/>
-      <c r="F163"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="8"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164"/>
       <c r="B164"/>
-      <c r="C164"/>
-      <c r="D164"/>
-      <c r="E164"/>
-      <c r="F164"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="8"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165"/>
       <c r="B165"/>
-      <c r="C165"/>
-      <c r="D165"/>
-      <c r="E165"/>
-      <c r="F165"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="8"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166"/>
       <c r="B166"/>
-      <c r="C166"/>
-      <c r="D166"/>
-      <c r="E166"/>
-      <c r="F166"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="8"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167"/>
       <c r="B167"/>
-      <c r="C167"/>
-      <c r="D167"/>
-      <c r="E167"/>
-      <c r="F167"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="8"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168"/>
       <c r="B168"/>
-      <c r="C168"/>
-      <c r="D168"/>
-      <c r="E168"/>
-      <c r="F168"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="8"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169"/>
       <c r="B169"/>
-      <c r="C169"/>
-      <c r="D169"/>
-      <c r="E169"/>
-      <c r="F169"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="8"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170"/>
       <c r="B170"/>
-      <c r="C170"/>
-      <c r="D170"/>
-      <c r="E170"/>
-      <c r="F170"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="8"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171"/>
       <c r="B171"/>
-      <c r="C171"/>
-      <c r="D171"/>
-      <c r="E171"/>
-      <c r="F171"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="8"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172"/>
       <c r="B172"/>
-      <c r="C172"/>
-      <c r="D172"/>
-      <c r="E172"/>
-      <c r="F172"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="8"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173"/>
       <c r="B173"/>
-      <c r="C173"/>
-      <c r="D173"/>
-      <c r="E173"/>
-      <c r="F173"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="8"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174"/>
       <c r="B174"/>
-      <c r="C174"/>
-      <c r="D174"/>
-      <c r="E174"/>
-      <c r="F174"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="8"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175"/>
       <c r="B175"/>
-      <c r="C175"/>
-      <c r="D175"/>
-      <c r="E175"/>
-      <c r="F175"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="8"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176"/>
       <c r="B176"/>
-      <c r="C176"/>
-      <c r="D176"/>
-      <c r="E176"/>
-      <c r="F176"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="8"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177"/>
       <c r="B177"/>
-      <c r="C177"/>
-      <c r="D177"/>
-      <c r="E177"/>
-      <c r="F177"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="8"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178"/>
       <c r="B178"/>
-      <c r="C178"/>
-      <c r="D178"/>
-      <c r="E178"/>
-      <c r="F178"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="8"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179"/>
       <c r="B179"/>
-      <c r="C179"/>
-      <c r="D179"/>
-      <c r="E179"/>
-      <c r="F179"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="8"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180"/>
       <c r="B180"/>
-      <c r="C180"/>
-      <c r="D180"/>
-      <c r="E180"/>
-      <c r="F180"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="8"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181"/>
       <c r="B181"/>
-      <c r="C181"/>
-      <c r="D181"/>
-      <c r="E181"/>
-      <c r="F181"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="8"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182"/>
       <c r="B182"/>
-      <c r="C182"/>
-      <c r="D182"/>
-      <c r="E182"/>
-      <c r="F182"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="8"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183"/>
       <c r="B183"/>
-      <c r="C183"/>
-      <c r="D183"/>
-      <c r="E183"/>
-      <c r="F183"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="8"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184"/>
       <c r="B184"/>
-      <c r="C184"/>
-      <c r="D184"/>
-      <c r="E184"/>
-      <c r="F184"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="8"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185"/>
       <c r="B185"/>
-      <c r="C185"/>
-      <c r="D185"/>
-      <c r="E185"/>
-      <c r="F185"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="8"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186"/>
       <c r="B186"/>
-      <c r="C186"/>
-      <c r="D186"/>
-      <c r="E186"/>
-      <c r="F186"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="8"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187"/>
       <c r="B187"/>
-      <c r="C187"/>
-      <c r="D187"/>
-      <c r="E187"/>
-      <c r="F187"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="8"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188"/>
       <c r="B188"/>
-      <c r="C188"/>
-      <c r="D188"/>
-      <c r="E188"/>
-      <c r="F188"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="8"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189"/>
       <c r="B189"/>
-      <c r="C189"/>
-      <c r="D189"/>
-      <c r="E189"/>
-      <c r="F189"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="8"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190"/>
       <c r="B190"/>
-      <c r="C190"/>
-      <c r="D190"/>
-      <c r="E190"/>
-      <c r="F190"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="8"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191"/>
       <c r="B191"/>
-      <c r="C191"/>
-      <c r="D191"/>
-      <c r="E191"/>
-      <c r="F191"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="8"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192"/>
       <c r="B192"/>
-      <c r="C192"/>
-      <c r="D192"/>
-      <c r="E192"/>
-      <c r="F192"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="8"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193"/>
       <c r="B193"/>
-      <c r="C193"/>
-      <c r="D193"/>
-      <c r="E193"/>
-      <c r="F193"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="8"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194"/>
       <c r="B194"/>
-      <c r="C194"/>
-      <c r="D194"/>
-      <c r="E194"/>
-      <c r="F194"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="8"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195"/>
       <c r="B195"/>
-      <c r="C195"/>
-      <c r="D195"/>
-      <c r="E195"/>
-      <c r="F195"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="8"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196"/>
       <c r="B196"/>
-      <c r="C196"/>
-      <c r="D196"/>
-      <c r="E196"/>
-      <c r="F196"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="8"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197"/>
       <c r="B197"/>
-      <c r="C197"/>
-      <c r="D197"/>
-      <c r="E197"/>
-      <c r="F197"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="8"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198"/>
       <c r="B198"/>
-      <c r="C198"/>
-      <c r="D198"/>
-      <c r="E198"/>
-      <c r="F198"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="8"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199"/>
       <c r="B199"/>
-      <c r="C199"/>
-      <c r="D199"/>
-      <c r="E199"/>
-      <c r="F199"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="8"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200"/>
       <c r="B200"/>
-      <c r="C200"/>
-      <c r="D200"/>
-      <c r="E200"/>
-      <c r="F200"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="8"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201"/>
       <c r="B201"/>
-      <c r="C201"/>
-      <c r="D201"/>
-      <c r="E201"/>
-      <c r="F201"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="8"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202"/>
       <c r="B202"/>
-      <c r="C202"/>
-      <c r="D202"/>
-      <c r="E202"/>
-      <c r="F202"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="8"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203"/>
       <c r="B203"/>
-      <c r="C203"/>
-      <c r="D203"/>
-      <c r="E203"/>
-      <c r="F203"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="8"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204"/>
       <c r="B204"/>
-      <c r="C204"/>
-      <c r="D204"/>
-      <c r="E204"/>
-      <c r="F204"/>
+      <c r="C204" s="13"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="8"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205"/>
       <c r="B205"/>
-      <c r="C205"/>
-      <c r="D205"/>
-      <c r="E205"/>
-      <c r="F205"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="8"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206"/>
       <c r="B206"/>
-      <c r="C206"/>
-      <c r="D206"/>
-      <c r="E206"/>
-      <c r="F206"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="8"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="8"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207"/>
       <c r="B207"/>
-      <c r="C207"/>
-      <c r="D207"/>
-      <c r="E207"/>
-      <c r="F207"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="13"/>
+      <c r="F207" s="8"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208"/>
       <c r="B208"/>
-      <c r="C208"/>
-      <c r="D208"/>
-      <c r="E208"/>
-      <c r="F208"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="8"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="8"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209"/>
       <c r="B209"/>
-      <c r="C209"/>
-      <c r="D209"/>
-      <c r="E209"/>
-      <c r="F209"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="8"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="8"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210"/>
       <c r="B210"/>
-      <c r="C210"/>
-      <c r="D210"/>
-      <c r="E210"/>
-      <c r="F210"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="8"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211"/>
       <c r="B211"/>
-      <c r="C211"/>
-      <c r="D211"/>
-      <c r="E211"/>
-      <c r="F211"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="8"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212"/>
       <c r="B212"/>
-      <c r="C212"/>
-      <c r="D212"/>
-      <c r="E212"/>
-      <c r="F212"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="8"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="8"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213"/>
       <c r="B213"/>
-      <c r="C213"/>
-      <c r="D213"/>
-      <c r="E213"/>
-      <c r="F213"/>
+      <c r="C213" s="13"/>
+      <c r="D213" s="8"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="8"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214"/>
       <c r="B214"/>
-      <c r="C214"/>
-      <c r="D214"/>
-      <c r="E214"/>
-      <c r="F214"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="8"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215"/>
       <c r="B215"/>
-      <c r="C215"/>
-      <c r="D215"/>
-      <c r="E215"/>
-      <c r="F215"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="8"/>
+      <c r="E215" s="13"/>
+      <c r="F215" s="8"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216"/>
       <c r="B216"/>
-      <c r="C216"/>
-      <c r="D216"/>
-      <c r="E216"/>
-      <c r="F216"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="8"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="8"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217"/>
       <c r="B217"/>
-      <c r="C217"/>
-      <c r="D217"/>
-      <c r="E217"/>
-      <c r="F217"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="8"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218"/>
       <c r="B218"/>
-      <c r="C218"/>
-      <c r="D218"/>
-      <c r="E218"/>
-      <c r="F218"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="8"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="8"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219"/>
       <c r="B219"/>
-      <c r="C219"/>
-      <c r="D219"/>
-      <c r="E219"/>
-      <c r="F219"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="8"/>
+      <c r="E219" s="13"/>
+      <c r="F219" s="8"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220"/>
       <c r="B220"/>
-      <c r="C220"/>
-      <c r="D220"/>
-      <c r="E220"/>
-      <c r="F220"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="8"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221"/>
       <c r="B221"/>
-      <c r="C221"/>
-      <c r="D221"/>
-      <c r="E221"/>
-      <c r="F221"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="8"/>
+      <c r="E221" s="13"/>
+      <c r="F221" s="8"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222"/>
       <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
-      <c r="E222"/>
-      <c r="F222"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="8"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="8"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223"/>
       <c r="B223"/>
-      <c r="C223"/>
-      <c r="D223"/>
-      <c r="E223"/>
-      <c r="F223"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="13"/>
+      <c r="F223" s="8"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224"/>
       <c r="B224"/>
-      <c r="C224"/>
-      <c r="D224"/>
-      <c r="E224"/>
-      <c r="F224"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="8"/>
+      <c r="E224" s="13"/>
+      <c r="F224" s="8"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225"/>
       <c r="B225"/>
-      <c r="C225"/>
-      <c r="D225"/>
-      <c r="E225"/>
-      <c r="F225"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="8"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="8"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226"/>
       <c r="B226"/>
-      <c r="C226"/>
-      <c r="D226"/>
-      <c r="E226"/>
-      <c r="F226"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="8"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="8"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227"/>
       <c r="B227"/>
-      <c r="C227"/>
-      <c r="D227"/>
-      <c r="E227"/>
-      <c r="F227"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="8"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="8"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228"/>
       <c r="B228"/>
-      <c r="C228"/>
-      <c r="D228"/>
-      <c r="E228"/>
-      <c r="F228"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="8"/>
+      <c r="E228" s="13"/>
+      <c r="F228" s="8"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229"/>
       <c r="B229"/>
-      <c r="C229"/>
-      <c r="D229"/>
-      <c r="E229"/>
-      <c r="F229"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="8"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="8"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230"/>
       <c r="B230"/>
-      <c r="C230"/>
-      <c r="D230"/>
-      <c r="E230"/>
-      <c r="F230"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="8"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="8"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231"/>
       <c r="B231"/>
-      <c r="C231"/>
-      <c r="D231"/>
-      <c r="E231"/>
-      <c r="F231"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="8"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="8"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232"/>
       <c r="B232"/>
-      <c r="C232"/>
-      <c r="D232"/>
-      <c r="E232"/>
-      <c r="F232"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="8"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="8"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233"/>
       <c r="B233"/>
-      <c r="C233"/>
-      <c r="D233"/>
-      <c r="E233"/>
-      <c r="F233"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="8"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="8"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234"/>
       <c r="B234"/>
-      <c r="C234"/>
-      <c r="D234"/>
-      <c r="E234"/>
-      <c r="F234"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="8"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="8"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235"/>
       <c r="B235"/>
-      <c r="C235"/>
-      <c r="D235"/>
-      <c r="E235"/>
-      <c r="F235"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="8"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="8"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236"/>
       <c r="B236"/>
-      <c r="C236"/>
-      <c r="D236"/>
-      <c r="E236"/>
-      <c r="F236"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="8"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="8"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237"/>
       <c r="B237"/>
-      <c r="C237"/>
-      <c r="D237"/>
-      <c r="E237"/>
-      <c r="F237"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="8"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="8"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238"/>
       <c r="B238"/>
-      <c r="C238"/>
-      <c r="D238"/>
-      <c r="E238"/>
-      <c r="F238"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="8"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="8"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239"/>
       <c r="B239"/>
-      <c r="C239"/>
-      <c r="D239"/>
-      <c r="E239"/>
-      <c r="F239"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="8"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="8"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240"/>
       <c r="B240"/>
-      <c r="C240"/>
-      <c r="D240"/>
-      <c r="E240"/>
-      <c r="F240"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="8"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="8"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241"/>
       <c r="B241"/>
-      <c r="C241"/>
-      <c r="D241"/>
-      <c r="E241"/>
-      <c r="F241"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="8"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242"/>
       <c r="B242"/>
-      <c r="C242"/>
-      <c r="D242"/>
-      <c r="E242"/>
-      <c r="F242"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="8"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="8"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243"/>
       <c r="B243"/>
-      <c r="C243"/>
-      <c r="D243"/>
-      <c r="E243"/>
-      <c r="F243"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="8"/>
+      <c r="E243" s="13"/>
+      <c r="F243" s="8"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244"/>
       <c r="B244"/>
-      <c r="C244"/>
-      <c r="D244"/>
-      <c r="E244"/>
-      <c r="F244"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="8"/>
+      <c r="E244" s="13"/>
+      <c r="F244" s="8"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245"/>
       <c r="B245"/>
-      <c r="C245"/>
-      <c r="D245"/>
-      <c r="E245"/>
-      <c r="F245"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="13"/>
+      <c r="F245" s="8"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246"/>
       <c r="B246"/>
-      <c r="C246"/>
-      <c r="D246"/>
-      <c r="E246"/>
-      <c r="F246"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="8"/>
+      <c r="E246" s="13"/>
+      <c r="F246" s="8"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247"/>
       <c r="B247"/>
-      <c r="C247"/>
-      <c r="D247"/>
-      <c r="E247"/>
-      <c r="F247"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="8"/>
+      <c r="E247" s="13"/>
+      <c r="F247" s="8"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248"/>
       <c r="B248"/>
-      <c r="C248"/>
-      <c r="D248"/>
-      <c r="E248"/>
-      <c r="F248"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="8"/>
+      <c r="E248" s="13"/>
+      <c r="F248" s="8"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249"/>
       <c r="B249"/>
-      <c r="C249"/>
-      <c r="D249"/>
-      <c r="E249"/>
-      <c r="F249"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="8"/>
+      <c r="E249" s="13"/>
+      <c r="F249" s="8"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250"/>
       <c r="B250"/>
-      <c r="C250"/>
-      <c r="D250"/>
-      <c r="E250"/>
-      <c r="F250"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="8"/>
+      <c r="E250" s="13"/>
+      <c r="F250" s="8"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251"/>
       <c r="B251"/>
-      <c r="C251"/>
-      <c r="D251"/>
-      <c r="E251"/>
-      <c r="F251"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="8"/>
+      <c r="E251" s="13"/>
+      <c r="F251" s="8"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252"/>
       <c r="B252"/>
-      <c r="C252"/>
-      <c r="D252"/>
-      <c r="E252"/>
-      <c r="F252"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="8"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="8"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253"/>
       <c r="B253"/>
-      <c r="C253"/>
-      <c r="D253"/>
-      <c r="E253"/>
-      <c r="F253"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="8"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="8"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254"/>
       <c r="B254"/>
-      <c r="C254"/>
-      <c r="D254"/>
-      <c r="E254"/>
-      <c r="F254"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="8"/>
+      <c r="E254" s="13"/>
+      <c r="F254" s="8"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255"/>
       <c r="B255"/>
-      <c r="C255"/>
-      <c r="D255"/>
-      <c r="E255"/>
-      <c r="F255"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="8"/>
+      <c r="E255" s="13"/>
+      <c r="F255" s="8"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256"/>
       <c r="B256"/>
-      <c r="C256"/>
-      <c r="D256"/>
-      <c r="E256"/>
-      <c r="F256"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="8"/>
+      <c r="E256" s="13"/>
+      <c r="F256" s="8"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257"/>
       <c r="B257"/>
-      <c r="C257"/>
-      <c r="D257"/>
-      <c r="E257"/>
-      <c r="F257"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="8"/>
+      <c r="E257" s="13"/>
+      <c r="F257" s="8"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258"/>
       <c r="B258"/>
-      <c r="C258"/>
-      <c r="D258"/>
-      <c r="E258"/>
-      <c r="F258"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="8"/>
+      <c r="E258" s="13"/>
+      <c r="F258" s="8"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259"/>
       <c r="B259"/>
-      <c r="C259"/>
-      <c r="D259"/>
-      <c r="E259"/>
-      <c r="F259"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="13"/>
+      <c r="F259" s="8"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260"/>
       <c r="B260"/>
-      <c r="C260"/>
-      <c r="D260"/>
-      <c r="E260"/>
-      <c r="F260"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="13"/>
+      <c r="F260" s="8"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261"/>
       <c r="B261"/>
-      <c r="C261"/>
-      <c r="D261"/>
-      <c r="E261"/>
-      <c r="F261"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="8"/>
+      <c r="E261" s="13"/>
+      <c r="F261" s="8"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262"/>
       <c r="B262"/>
-      <c r="C262"/>
-      <c r="D262"/>
-      <c r="E262"/>
-      <c r="F262"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="8"/>
+      <c r="E262" s="13"/>
+      <c r="F262" s="8"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263"/>
       <c r="B263"/>
-      <c r="C263"/>
-      <c r="D263"/>
-      <c r="E263"/>
-      <c r="F263"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="8"/>
+      <c r="E263" s="13"/>
+      <c r="F263" s="8"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264"/>
       <c r="B264"/>
-      <c r="C264"/>
-      <c r="D264"/>
-      <c r="E264"/>
-      <c r="F264"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="8"/>
+      <c r="E264" s="13"/>
+      <c r="F264" s="8"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265"/>
       <c r="B265"/>
-      <c r="C265"/>
-      <c r="D265"/>
-      <c r="E265"/>
-      <c r="F265"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="8"/>
+      <c r="E265" s="13"/>
+      <c r="F265" s="8"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266"/>
       <c r="B266"/>
-      <c r="C266"/>
-      <c r="D266"/>
-      <c r="E266"/>
-      <c r="F266"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="8"/>
+      <c r="E266" s="13"/>
+      <c r="F266" s="8"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267"/>
       <c r="B267"/>
-      <c r="C267"/>
-      <c r="D267"/>
-      <c r="E267"/>
-      <c r="F267"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="13"/>
+      <c r="F267" s="8"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268"/>
       <c r="B268"/>
-      <c r="C268"/>
-      <c r="D268"/>
-      <c r="E268"/>
-      <c r="F268"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="13"/>
+      <c r="F268" s="8"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269"/>
       <c r="B269"/>
-      <c r="C269"/>
-      <c r="D269"/>
-      <c r="E269"/>
-      <c r="F269"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="8"/>
+      <c r="E269" s="13"/>
+      <c r="F269" s="8"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270"/>
       <c r="B270"/>
-      <c r="C270"/>
-      <c r="D270"/>
-      <c r="E270"/>
-      <c r="F270"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="13"/>
+      <c r="F270" s="8"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271"/>
       <c r="B271"/>
-      <c r="C271"/>
-      <c r="D271"/>
-      <c r="E271"/>
-      <c r="F271"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="8"/>
+      <c r="E271" s="13"/>
+      <c r="F271" s="8"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272"/>
       <c r="B272"/>
-      <c r="C272"/>
-      <c r="D272"/>
-      <c r="E272"/>
-      <c r="F272"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="13"/>
+      <c r="F272" s="8"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273"/>
       <c r="B273"/>
-      <c r="C273"/>
-      <c r="D273"/>
-      <c r="E273"/>
-      <c r="F273"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="13"/>
+      <c r="F273" s="8"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274"/>
       <c r="B274"/>
-      <c r="C274"/>
-      <c r="D274"/>
-      <c r="E274"/>
-      <c r="F274"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="8"/>
+      <c r="E274" s="13"/>
+      <c r="F274" s="8"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275"/>
       <c r="B275"/>
-      <c r="C275"/>
-      <c r="D275"/>
-      <c r="E275"/>
-      <c r="F275"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="8"/>
+      <c r="E275" s="13"/>
+      <c r="F275" s="8"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276"/>
       <c r="B276"/>
-      <c r="C276"/>
-      <c r="D276"/>
-      <c r="E276"/>
-      <c r="F276"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="8"/>
+      <c r="E276" s="13"/>
+      <c r="F276" s="8"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277"/>
       <c r="B277"/>
-      <c r="C277"/>
-      <c r="D277"/>
-      <c r="E277"/>
-      <c r="F277"/>
+      <c r="C277" s="13"/>
+      <c r="D277" s="8"/>
+      <c r="E277" s="13"/>
+      <c r="F277" s="8"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278"/>
       <c r="B278"/>
-      <c r="C278"/>
-      <c r="D278"/>
-      <c r="E278"/>
-      <c r="F278"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="8"/>
+      <c r="E278" s="13"/>
+      <c r="F278" s="8"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279"/>
       <c r="B279"/>
-      <c r="C279"/>
-      <c r="D279"/>
-      <c r="E279"/>
-      <c r="F279"/>
+      <c r="C279" s="13"/>
+      <c r="D279" s="8"/>
+      <c r="E279" s="13"/>
+      <c r="F279" s="8"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280"/>
       <c r="B280"/>
-      <c r="C280"/>
-      <c r="D280"/>
-      <c r="E280"/>
-      <c r="F280"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="8"/>
+      <c r="E280" s="13"/>
+      <c r="F280" s="8"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281"/>
       <c r="B281"/>
-      <c r="C281"/>
-      <c r="D281"/>
-      <c r="E281"/>
-      <c r="F281"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="8"/>
+      <c r="E281" s="13"/>
+      <c r="F281" s="8"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282"/>
       <c r="B282"/>
-      <c r="C282"/>
-      <c r="D282"/>
-      <c r="E282"/>
-      <c r="F282"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="8"/>
+      <c r="E282" s="13"/>
+      <c r="F282" s="8"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283"/>
       <c r="B283"/>
-      <c r="C283"/>
-      <c r="D283"/>
-      <c r="E283"/>
-      <c r="F283"/>
+      <c r="C283" s="13"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="13"/>
+      <c r="F283" s="8"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284"/>
       <c r="B284"/>
-      <c r="C284"/>
-      <c r="D284"/>
-      <c r="E284"/>
-      <c r="F284"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="8"/>
+      <c r="E284" s="13"/>
+      <c r="F284" s="8"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285"/>
       <c r="B285"/>
-      <c r="C285"/>
-      <c r="D285"/>
-      <c r="E285"/>
-      <c r="F285"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="8"/>
+      <c r="E285" s="13"/>
+      <c r="F285" s="8"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286"/>
       <c r="B286"/>
-      <c r="C286"/>
-      <c r="D286"/>
-      <c r="E286"/>
-      <c r="F286"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="13"/>
+      <c r="F286" s="8"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287"/>
       <c r="B287"/>
-      <c r="C287"/>
-      <c r="D287"/>
-      <c r="E287"/>
-      <c r="F287"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="8"/>
+      <c r="E287" s="13"/>
+      <c r="F287" s="8"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288"/>
       <c r="B288"/>
-      <c r="C288"/>
-      <c r="D288"/>
-      <c r="E288"/>
-      <c r="F288"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="8"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="8"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289"/>
       <c r="B289"/>
-      <c r="C289"/>
-      <c r="D289"/>
-      <c r="E289"/>
-      <c r="F289"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="8"/>
+      <c r="E289" s="13"/>
+      <c r="F289" s="8"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290"/>
       <c r="B290"/>
-      <c r="C290"/>
-      <c r="D290"/>
-      <c r="E290"/>
-      <c r="F290"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="8"/>
+      <c r="E290" s="13"/>
+      <c r="F290" s="8"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291"/>
       <c r="B291"/>
-      <c r="C291"/>
-      <c r="D291"/>
-      <c r="E291"/>
-      <c r="F291"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="8"/>
+      <c r="E291" s="13"/>
+      <c r="F291" s="8"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292"/>
       <c r="B292"/>
-      <c r="C292"/>
-      <c r="D292"/>
-      <c r="E292"/>
-      <c r="F292"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="13"/>
+      <c r="F292" s="8"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293"/>
       <c r="B293"/>
-      <c r="C293"/>
-      <c r="D293"/>
-      <c r="E293"/>
-      <c r="F293"/>
+      <c r="C293" s="13"/>
+      <c r="D293" s="8"/>
+      <c r="E293" s="13"/>
+      <c r="F293" s="8"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294"/>
       <c r="B294"/>
-      <c r="C294"/>
-      <c r="D294"/>
-      <c r="E294"/>
-      <c r="F294"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="8"/>
+      <c r="E294" s="13"/>
+      <c r="F294" s="8"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295"/>
       <c r="B295"/>
-      <c r="C295"/>
-      <c r="D295"/>
-      <c r="E295"/>
-      <c r="F295"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="8"/>
+      <c r="E295" s="13"/>
+      <c r="F295" s="8"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296"/>
       <c r="B296"/>
-      <c r="C296"/>
-      <c r="D296"/>
-      <c r="E296"/>
-      <c r="F296"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="8"/>
+      <c r="E296" s="13"/>
+      <c r="F296" s="8"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297"/>
       <c r="B297"/>
-      <c r="C297"/>
-      <c r="D297"/>
-      <c r="E297"/>
-      <c r="F297"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="8"/>
+      <c r="E297" s="13"/>
+      <c r="F297" s="8"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298"/>
       <c r="B298"/>
-      <c r="C298"/>
-      <c r="D298"/>
-      <c r="E298"/>
-      <c r="F298"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="8"/>
+      <c r="E298" s="13"/>
+      <c r="F298" s="8"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299"/>
       <c r="B299"/>
-      <c r="C299"/>
-      <c r="D299"/>
-      <c r="E299"/>
-      <c r="F299"/>
+      <c r="C299" s="13"/>
+      <c r="D299" s="8"/>
+      <c r="E299" s="13"/>
+      <c r="F299" s="8"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300"/>
       <c r="B300"/>
-      <c r="C300"/>
-      <c r="D300"/>
-      <c r="E300"/>
-      <c r="F300"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="8"/>
+      <c r="E300" s="13"/>
+      <c r="F300" s="8"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301"/>
       <c r="B301"/>
-      <c r="C301"/>
-      <c r="D301"/>
-      <c r="E301"/>
-      <c r="F301"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="8"/>
+      <c r="E301" s="13"/>
+      <c r="F301" s="8"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302"/>
       <c r="B302"/>
-      <c r="C302"/>
-      <c r="D302"/>
-      <c r="E302"/>
-      <c r="F302"/>
+      <c r="C302" s="13"/>
+      <c r="D302" s="8"/>
+      <c r="E302" s="13"/>
+      <c r="F302" s="8"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303"/>
       <c r="B303"/>
-      <c r="C303"/>
-      <c r="D303"/>
-      <c r="E303"/>
-      <c r="F303"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="8"/>
+      <c r="E303" s="13"/>
+      <c r="F303" s="8"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304"/>
       <c r="B304"/>
-      <c r="C304"/>
-      <c r="D304"/>
-      <c r="E304"/>
-      <c r="F304"/>
+      <c r="C304" s="13"/>
+      <c r="D304" s="8"/>
+      <c r="E304" s="13"/>
+      <c r="F304" s="8"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305"/>
       <c r="B305"/>
-      <c r="C305"/>
-      <c r="D305"/>
-      <c r="E305"/>
-      <c r="F305"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="8"/>
+      <c r="E305" s="13"/>
+      <c r="F305" s="8"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306"/>
       <c r="B306"/>
-      <c r="C306"/>
-      <c r="D306"/>
-      <c r="E306"/>
-      <c r="F306"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="8"/>
+      <c r="E306" s="13"/>
+      <c r="F306" s="8"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307"/>
       <c r="B307"/>
-      <c r="C307"/>
-      <c r="D307"/>
-      <c r="E307"/>
-      <c r="F307"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="8"/>
+      <c r="E307" s="13"/>
+      <c r="F307" s="8"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308"/>
       <c r="B308"/>
-      <c r="C308"/>
-      <c r="D308"/>
-      <c r="E308"/>
-      <c r="F308"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="8"/>
+      <c r="E308" s="13"/>
+      <c r="F308" s="8"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309"/>
       <c r="B309"/>
-      <c r="C309"/>
-      <c r="D309"/>
-      <c r="E309"/>
-      <c r="F309"/>
+      <c r="C309" s="13"/>
+      <c r="D309" s="8"/>
+      <c r="E309" s="13"/>
+      <c r="F309" s="8"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310"/>
       <c r="B310"/>
-      <c r="C310"/>
-      <c r="D310"/>
-      <c r="E310"/>
-      <c r="F310"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="8"/>
+      <c r="E310" s="13"/>
+      <c r="F310" s="8"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311"/>
       <c r="B311"/>
-      <c r="C311"/>
-      <c r="D311"/>
-      <c r="E311"/>
-      <c r="F311"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="8"/>
+      <c r="E311" s="13"/>
+      <c r="F311" s="8"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312"/>
       <c r="B312"/>
-      <c r="C312"/>
-      <c r="D312"/>
-      <c r="E312"/>
-      <c r="F312"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="8"/>
+      <c r="E312" s="13"/>
+      <c r="F312" s="8"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313"/>
       <c r="B313"/>
-      <c r="C313"/>
-      <c r="D313"/>
-      <c r="E313"/>
-      <c r="F313"/>
+      <c r="C313" s="13"/>
+      <c r="D313" s="8"/>
+      <c r="E313" s="13"/>
+      <c r="F313" s="8"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314"/>
       <c r="B314"/>
-      <c r="C314"/>
-      <c r="D314"/>
-      <c r="E314"/>
-      <c r="F314"/>
+      <c r="C314" s="13"/>
+      <c r="D314" s="8"/>
+      <c r="E314" s="13"/>
+      <c r="F314" s="8"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315"/>
       <c r="B315"/>
-      <c r="C315"/>
-      <c r="D315"/>
-      <c r="E315"/>
-      <c r="F315"/>
+      <c r="C315" s="13"/>
+      <c r="D315" s="8"/>
+      <c r="E315" s="13"/>
+      <c r="F315" s="8"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316"/>
       <c r="B316"/>
-      <c r="C316"/>
-      <c r="D316"/>
-      <c r="E316"/>
-      <c r="F316"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="8"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="8"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317"/>
       <c r="B317"/>
-      <c r="C317"/>
-      <c r="D317"/>
-      <c r="E317"/>
-      <c r="F317"/>
+      <c r="C317" s="13"/>
+      <c r="D317" s="8"/>
+      <c r="E317" s="13"/>
+      <c r="F317" s="8"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318"/>
       <c r="B318"/>
-      <c r="C318"/>
-      <c r="D318"/>
-      <c r="E318"/>
-      <c r="F318"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="8"/>
+      <c r="E318" s="13"/>
+      <c r="F318" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="C71:C76"/>
     <mergeCell ref="C77:C79"/>
     <mergeCell ref="A23:A62"/>
     <mergeCell ref="B23:B62"/>
     <mergeCell ref="A63:A79"/>
     <mergeCell ref="B63:B79"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="C71:C76"/>
     <mergeCell ref="D66:D70"/>
     <mergeCell ref="D71:D76"/>
     <mergeCell ref="D77:D79"/>
@@ -4226,17 +4247,6 @@
     <mergeCell ref="D39:D44"/>
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="C35:C38"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="B2:B22"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D5:D9"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="C49:C57"/>
     <mergeCell ref="D49:D57"/>
@@ -4245,197 +4255,24 @@
     <mergeCell ref="D58:D62"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C23:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B058CE-A67C-407D-92DE-5FA465A802F2}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="49.7265625" customWidth="1"/>
-    <col min="2" max="2" width="66.90625" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63.6328125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
-      <c r="B5" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="149.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="B7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
-      <c r="B8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="19"/>
-      <c r="B14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A9:A14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="4190" divId="MlSecOps_Process_Framework_4190" sourceType="range" sourceRef="A1:F79" destinationFile="C:\Users\arsemenov\cyberorda.github.io\docs\source\MlSecOps_Process_Framework.htm"/>
+  </webPublishItems>
 </worksheet>
 </file>
--- a/docs/tables/MlSecOps_Process_Framework.xlsx
+++ b/docs/tables/MlSecOps_Process_Framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsemenov\cyberorda.github.io\docs\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879C011F-6039-47BA-A605-A0FAA7405723}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA87B7A8-4E0F-47AB-9B22-261F4D6030E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="6330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="205">
   <si>
     <t>Шифрование данных при хранении и передаче</t>
   </si>
@@ -680,6 +680,12 @@
       <t xml:space="preserve">
 Такой артефакт необходимо сделать обязательным к исполнению и осуществлять контроль за выполнением всех изложенных в нём требований.</t>
     </r>
+  </si>
+  <si>
+    <t>Разработка ML модели</t>
+  </si>
+  <si>
+    <t>Домен описывает практики, связанные с разработкой модели.</t>
   </si>
 </sst>
 </file>
@@ -862,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -922,6 +928,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -940,37 +976,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1256,8 +1265,8 @@
   <dimension ref="A1:F318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="A1:F79"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1293,16 +1302,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="367" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -1313,10 +1322,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="218.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="15" t="s">
         <v>59</v>
       </c>
@@ -1325,10 +1334,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="173" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="15" t="s">
         <v>71</v>
       </c>
@@ -1337,12 +1346,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="24" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="31" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="16" t="s">
@@ -1353,10 +1362,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="12" t="s">
         <v>60</v>
       </c>
@@ -1365,10 +1374,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="12" t="s">
         <v>78</v>
       </c>
@@ -1377,10 +1386,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="209.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="16" t="s">
         <v>57</v>
       </c>
@@ -1389,10 +1398,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="115" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="17" t="s">
         <v>36</v>
       </c>
@@ -1401,12 +1410,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="115" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="24" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -1417,10 +1426,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="229" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="12" t="s">
         <v>40</v>
       </c>
@@ -1429,10 +1438,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="115" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="12" t="s">
         <v>41</v>
       </c>
@@ -1441,12 +1450,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="192" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -1457,10 +1466,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="12" t="s">
         <v>64</v>
       </c>
@@ -1469,12 +1478,12 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="30" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -1485,10 +1494,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="120.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="18" t="s">
         <v>25</v>
       </c>
@@ -1497,12 +1506,12 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="84" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="25" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="31" t="s">
         <v>101</v>
       </c>
       <c r="E17" s="12" t="s">
@@ -1513,10 +1522,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="70" x14ac:dyDescent="0.35">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="22"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="12" t="s">
         <v>0</v>
       </c>
@@ -1525,10 +1534,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="191" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="12" t="s">
         <v>42</v>
       </c>
@@ -1537,10 +1546,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="12" t="s">
         <v>66</v>
       </c>
@@ -1549,10 +1558,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="169.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="12" t="s">
         <v>67</v>
       </c>
@@ -1561,10 +1570,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1573,16 +1582,16 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="185.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="30" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="19" t="s">
@@ -1593,10 +1602,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="28"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="12" t="s">
         <v>92</v>
       </c>
@@ -1605,10 +1614,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="12" t="s">
         <v>7</v>
       </c>
@@ -1617,12 +1626,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="31" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="30" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -1633,10 +1642,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="28"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="12" t="s">
         <v>32</v>
       </c>
@@ -1645,10 +1654,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="28"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="12" t="s">
         <v>8</v>
       </c>
@@ -1657,10 +1666,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="84" x14ac:dyDescent="0.35">
-      <c r="A29" s="28"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="12" t="s">
         <v>109</v>
       </c>
@@ -1669,12 +1678,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="31" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="30" t="s">
         <v>90</v>
       </c>
       <c r="E30" s="12" t="s">
@@ -1685,10 +1694,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="70" x14ac:dyDescent="0.35">
-      <c r="A31" s="28"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="12" t="s">
         <v>112</v>
       </c>
@@ -1697,10 +1706,10 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="162.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="12" t="s">
         <v>116</v>
       </c>
@@ -1709,10 +1718,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="56" x14ac:dyDescent="0.35">
-      <c r="A33" s="28"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="12" t="s">
         <v>33</v>
       </c>
@@ -1721,10 +1730,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="56" x14ac:dyDescent="0.35">
-      <c r="A34" s="28"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="12" t="s">
         <v>9</v>
       </c>
@@ -1733,12 +1742,12 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="42" x14ac:dyDescent="0.35">
-      <c r="A35" s="28"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="24" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="31" t="s">
         <v>194</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -1749,10 +1758,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="56" x14ac:dyDescent="0.35">
-      <c r="A36" s="28"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="12" t="s">
         <v>11</v>
       </c>
@@ -1761,10 +1770,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="112" x14ac:dyDescent="0.35">
-      <c r="A37" s="28"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="12" t="s">
         <v>87</v>
       </c>
@@ -1773,10 +1782,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="112" x14ac:dyDescent="0.35">
-      <c r="A38" s="28"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="23"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="12" t="s">
         <v>80</v>
       </c>
@@ -1785,12 +1794,12 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="28"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="31" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="30" t="s">
         <v>44</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -1801,10 +1810,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="112" x14ac:dyDescent="0.35">
-      <c r="A40" s="28"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="12" t="s">
         <v>82</v>
       </c>
@@ -1813,10 +1822,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="70" x14ac:dyDescent="0.35">
-      <c r="A41" s="28"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="12" t="s">
         <v>10</v>
       </c>
@@ -1825,10 +1834,10 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="112" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="12" t="s">
         <v>84</v>
       </c>
@@ -1837,10 +1846,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="84" x14ac:dyDescent="0.35">
-      <c r="A43" s="28"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="12" t="s">
         <v>83</v>
       </c>
@@ -1849,10 +1858,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="138.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="28"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="12" t="s">
         <v>26</v>
       </c>
@@ -1861,12 +1870,16 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.35">
-      <c r="A45" s="28"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="25" t="s">
+      <c r="A45" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="32" t="s">
         <v>195</v>
       </c>
       <c r="E45" s="20" t="s">
@@ -1877,10 +1890,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="70" x14ac:dyDescent="0.35">
-      <c r="A46" s="28"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="20" t="s">
         <v>125</v>
       </c>
@@ -1889,10 +1902,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="84" x14ac:dyDescent="0.35">
-      <c r="A47" s="28"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="32"/>
       <c r="E47" s="12" t="s">
         <v>123</v>
       </c>
@@ -1901,10 +1914,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="84" x14ac:dyDescent="0.35">
-      <c r="A48" s="28"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="23"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="33"/>
       <c r="E48" s="20" t="s">
         <v>122</v>
       </c>
@@ -1913,12 +1926,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="70" x14ac:dyDescent="0.35">
-      <c r="A49" s="28"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="24" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="31" t="s">
         <v>196</v>
       </c>
       <c r="E49" s="12" t="s">
@@ -1929,10 +1942,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="112" x14ac:dyDescent="0.35">
-      <c r="A50" s="28"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="22"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="32"/>
       <c r="E50" s="12" t="s">
         <v>126</v>
       </c>
@@ -1941,10 +1954,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="70" x14ac:dyDescent="0.35">
-      <c r="A51" s="28"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="22"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="12" t="s">
         <v>183</v>
       </c>
@@ -1953,10 +1966,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="140" x14ac:dyDescent="0.35">
-      <c r="A52" s="28"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="12" t="s">
         <v>127</v>
       </c>
@@ -1965,10 +1978,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="126" x14ac:dyDescent="0.35">
-      <c r="A53" s="28"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="22"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="32"/>
       <c r="E53" s="12" t="s">
         <v>128</v>
       </c>
@@ -1977,10 +1990,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="140" x14ac:dyDescent="0.35">
-      <c r="A54" s="28"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="22"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="32"/>
       <c r="E54" s="12" t="s">
         <v>86</v>
       </c>
@@ -1989,10 +2002,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="42" x14ac:dyDescent="0.35">
-      <c r="A55" s="28"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="22"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="12" t="s">
         <v>129</v>
       </c>
@@ -2001,10 +2014,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="70" x14ac:dyDescent="0.35">
-      <c r="A56" s="28"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="32"/>
       <c r="E56" s="12" t="s">
         <v>45</v>
       </c>
@@ -2013,10 +2026,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="98" x14ac:dyDescent="0.35">
-      <c r="A57" s="28"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="23"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="33"/>
       <c r="E57" s="12" t="s">
         <v>130</v>
       </c>
@@ -2025,12 +2038,12 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="98" x14ac:dyDescent="0.35">
-      <c r="A58" s="28"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="24" t="s">
+      <c r="A58" s="37"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="31" t="s">
         <v>197</v>
       </c>
       <c r="E58" s="12" t="s">
@@ -2041,10 +2054,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="70" x14ac:dyDescent="0.35">
-      <c r="A59" s="28"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="22"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="32"/>
       <c r="E59" s="12" t="s">
         <v>133</v>
       </c>
@@ -2053,10 +2066,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="98" x14ac:dyDescent="0.35">
-      <c r="A60" s="28"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="22"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="32"/>
       <c r="E60" s="12" t="s">
         <v>135</v>
       </c>
@@ -2065,10 +2078,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="70" x14ac:dyDescent="0.35">
-      <c r="A61" s="28"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="22"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="12" t="s">
         <v>134</v>
       </c>
@@ -2077,10 +2090,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="98" x14ac:dyDescent="0.35">
-      <c r="A62" s="33"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="23"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="33"/>
       <c r="E62" s="12" t="s">
         <v>46</v>
       </c>
@@ -2089,16 +2102,16 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="56" x14ac:dyDescent="0.35">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="31" t="s">
         <v>198</v>
       </c>
       <c r="E63" s="12" t="s">
@@ -2109,10 +2122,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="126" x14ac:dyDescent="0.35">
-      <c r="A64" s="28"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="22"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="12" t="s">
         <v>142</v>
       </c>
@@ -2121,10 +2134,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="56" x14ac:dyDescent="0.35">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="23"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="33"/>
       <c r="E65" s="12" t="s">
         <v>140</v>
       </c>
@@ -2133,12 +2146,12 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="84" x14ac:dyDescent="0.35">
-      <c r="A66" s="28"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="31" t="s">
+      <c r="A66" s="23"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="31" t="s">
         <v>199</v>
       </c>
       <c r="E66" s="12" t="s">
@@ -2149,10 +2162,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="56" x14ac:dyDescent="0.35">
-      <c r="A67" s="28"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="22"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="12" t="s">
         <v>155</v>
       </c>
@@ -2161,10 +2174,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="70" x14ac:dyDescent="0.35">
-      <c r="A68" s="28"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="32"/>
       <c r="E68" s="12" t="s">
         <v>141</v>
       </c>
@@ -2173,10 +2186,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="126" x14ac:dyDescent="0.35">
-      <c r="A69" s="28"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="22"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="32"/>
       <c r="E69" s="12" t="s">
         <v>19</v>
       </c>
@@ -2185,10 +2198,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="98" x14ac:dyDescent="0.35">
-      <c r="A70" s="28"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="23"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="33"/>
       <c r="E70" s="12" t="s">
         <v>20</v>
       </c>
@@ -2197,12 +2210,12 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="98" x14ac:dyDescent="0.35">
-      <c r="A71" s="28"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="31" t="s">
+      <c r="A71" s="23"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="D71" s="31" t="s">
         <v>200</v>
       </c>
       <c r="E71" s="12" t="s">
@@ -2213,10 +2226,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="112" x14ac:dyDescent="0.35">
-      <c r="A72" s="28"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="22"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="32"/>
       <c r="E72" s="12" t="s">
         <v>17</v>
       </c>
@@ -2225,10 +2238,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="98" x14ac:dyDescent="0.35">
-      <c r="A73" s="28"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="22"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="12" t="s">
         <v>161</v>
       </c>
@@ -2237,10 +2250,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" ht="126" x14ac:dyDescent="0.35">
-      <c r="A74" s="28"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="22"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="32"/>
       <c r="E74" s="12" t="s">
         <v>160</v>
       </c>
@@ -2249,10 +2262,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="154" x14ac:dyDescent="0.35">
-      <c r="A75" s="28"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="22"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="32"/>
       <c r="E75" s="12" t="s">
         <v>159</v>
       </c>
@@ -2261,10 +2274,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="84" x14ac:dyDescent="0.35">
-      <c r="A76" s="28"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="23"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="33"/>
       <c r="E76" s="12" t="s">
         <v>18</v>
       </c>
@@ -2273,12 +2286,12 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="140" x14ac:dyDescent="0.35">
-      <c r="A77" s="28"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="31" t="s">
+      <c r="A77" s="23"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="31" t="s">
         <v>201</v>
       </c>
       <c r="E77" s="12" t="s">
@@ -2289,10 +2302,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="154" x14ac:dyDescent="0.35">
-      <c r="A78" s="28"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="22"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="32"/>
       <c r="E78" s="12" t="s">
         <v>14</v>
       </c>
@@ -2301,10 +2314,10 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="98" x14ac:dyDescent="0.35">
-      <c r="A79" s="33"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="23"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="33"/>
       <c r="E79" s="12" t="s">
         <v>15</v>
       </c>
@@ -4225,19 +4238,19 @@
       <c r="F318" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="A23:A62"/>
-    <mergeCell ref="B23:B62"/>
-    <mergeCell ref="A63:A79"/>
-    <mergeCell ref="B63:B79"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D66:D70"/>
-    <mergeCell ref="D71:D76"/>
+  <mergeCells count="44">
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D17:D22"/>
     <mergeCell ref="D77:D79"/>
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="D26:D29"/>
@@ -4253,21 +4266,23 @@
     <mergeCell ref="D63:D65"/>
     <mergeCell ref="C58:C62"/>
     <mergeCell ref="D58:D62"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="B2:B22"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="D17:D22"/>
     <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D66:D70"/>
+    <mergeCell ref="D71:D76"/>
     <mergeCell ref="D45:D48"/>
     <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="A63:A79"/>
+    <mergeCell ref="B63:B79"/>
+    <mergeCell ref="A23:A44"/>
+    <mergeCell ref="B23:B44"/>
+    <mergeCell ref="B45:B62"/>
+    <mergeCell ref="A45:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
